--- a/model_results.xlsx
+++ b/model_results.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmppo\Desktop\MSDSAA\Y1\S2\Text Mining\text-mining-group-project-23-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F21EB87-A72F-468C-92C9-12C56507D5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8143D9AC-FF88-4B0F-A6F1-A8861EF25B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9E7F0CBB-F962-4FB9-95A9-E857E67B2035}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{9E7F0CBB-F962-4FB9-95A9-E857E67B2035}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +38,182 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
+  <si>
+    <t>tfidf</t>
+  </si>
+  <si>
+    <t>glove_50d</t>
+  </si>
+  <si>
+    <t>glove_stem</t>
+  </si>
+  <si>
+    <t>glove_200d</t>
+  </si>
+  <si>
+    <t>xlmr_reviews</t>
+  </si>
+  <si>
+    <t>xlmr_reviews_only</t>
+  </si>
+  <si>
+    <t>xlmr_concat_no_reviews</t>
+  </si>
+  <si>
+    <t>xlmr_description_only</t>
+  </si>
+  <si>
+    <t>xlmr_host_about_only</t>
+  </si>
+  <si>
+    <t>mbert_reviews</t>
+  </si>
+  <si>
+    <t>mbert_reviews_only</t>
+  </si>
+  <si>
+    <t>mbert_concat_no_reviews</t>
+  </si>
+  <si>
+    <t>mbert_description_only</t>
+  </si>
+  <si>
+    <t>mbert_host_about_only</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Language (all / &lt;language code&gt;)</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>TD-IDF</t>
+  </si>
+  <si>
+    <t>GloVe</t>
+  </si>
+  <si>
+    <t>XLMR</t>
+  </si>
+  <si>
+    <t>MBERT</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>Dimensionality</t>
+  </si>
+  <si>
+    <t>Num. properties in Test set</t>
+  </si>
+  <si>
+    <t>Feature(s) Used</t>
+  </si>
+  <si>
+    <t>Embedding Dataset Var. Name</t>
+  </si>
+  <si>
+    <t>Embedding Type</t>
+  </si>
+  <si>
+    <t>Dataset Type</t>
+  </si>
+  <si>
+    <t>Dataset Type (all / reviews only / no reviews only)</t>
+  </si>
+  <si>
+    <t>All reviews</t>
+  </si>
+  <si>
+    <t>Reviews only</t>
+  </si>
+  <si>
+    <t>No reviews only</t>
+  </si>
+  <si>
+    <t>Num. properties in Train set</t>
+  </si>
+  <si>
+    <t>reviews only</t>
+  </si>
+  <si>
+    <t>no reviews only</t>
+  </si>
+  <si>
+    <t>lemma_no_stopwords_ner_trans_clean_comments</t>
+  </si>
+  <si>
+    <t>stem_no_stopwords_ner_trans_clean_comments</t>
+  </si>
+  <si>
+    <t>ner_trans_clean_comments</t>
+  </si>
+  <si>
+    <t>lemma_no_stopwords_ner_trans_clean_description</t>
+  </si>
+  <si>
+    <t>lemma_no_stopwords_ner_trans_clean_host_about</t>
+  </si>
+  <si>
+    <t>lemma_no_stopwords_ner_trans_clean_description,lemma_no_stopwords_ner_trans_clean_host_about</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>Classifier</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +221,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +270,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +706,1015 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CC01E1-DD0F-4F8E-A547-9C773B957624}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="13.26953125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="23">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H10" s="20">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
+      <c r="B11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="H11" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="25"/>
+      <c r="B13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="25"/>
+      <c r="B14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="25"/>
+      <c r="B15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="25"/>
+      <c r="B16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.751</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="25"/>
+      <c r="B17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.751</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99845036-52F7-46E1-859E-75D4F16C88B6}">
+  <dimension ref="A2:H16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4952</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="7">
+        <v>50</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4998</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="7">
+        <v>50</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4998</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
+      <c r="B6" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="7">
+        <v>200</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7">
+        <v>4998</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7">
+        <v>768</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4998</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7">
+        <v>768</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3396</v>
+      </c>
+      <c r="H8" s="7">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
+        <v>768</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1602</v>
+      </c>
+      <c r="H9" s="7">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7">
+        <v>768</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1602</v>
+      </c>
+      <c r="H10" s="7">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7">
+        <v>768</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1602</v>
+      </c>
+      <c r="H11" s="7">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="7">
+        <v>768</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7">
+        <v>4998</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="7">
+        <v>768</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1602</v>
+      </c>
+      <c r="H13" s="7">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
+      <c r="B14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="7">
+        <v>768</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1602</v>
+      </c>
+      <c r="H14" s="7">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="7">
+        <v>768</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1602</v>
+      </c>
+      <c r="H15" s="7">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="7">
+        <v>768</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1602</v>
+      </c>
+      <c r="H16" s="7">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E801D0E-91E1-4B94-9F42-58C7DA276BB6}">
+  <dimension ref="A2:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.89</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD044B75-9B01-4B5F-8EE4-2264ADFD30D8}">
+  <dimension ref="B2:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.7265625" style="2"/>
+    <col min="3" max="6" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.74637200000000004</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1.0279E-2</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.78032800000000002</v>
+      </c>
+      <c r="F4" s="14">
+        <v>9.0950000000000007E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.74188799999999999</v>
+      </c>
+      <c r="D5" s="14">
+        <v>7.1219999999999999E-3</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.76929599999999998</v>
+      </c>
+      <c r="F5" s="14">
+        <v>7.3400000000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.99306300000000003</v>
+      </c>
+      <c r="D6" s="14">
+        <v>4.9049999999999996E-3</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.99236599999999997</v>
+      </c>
+      <c r="F6" s="14">
+        <v>4.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.849275</v>
+      </c>
+      <c r="D7" s="14">
+        <v>5.4910000000000002E-3</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.86668599999999996</v>
+      </c>
+      <c r="F7" s="14">
+        <v>4.9789999999999999E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/model_results.xlsx
+++ b/model_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmppo\Desktop\MSDSAA\Y1\S2\Text Mining\text-mining-group-project-23-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8143D9AC-FF88-4B0F-A6F1-A8861EF25B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18463D60-A319-4AFF-A36B-5963394A6AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{9E7F0CBB-F962-4FB9-95A9-E857E67B2035}"/>
   </bookViews>
@@ -1609,7 +1609,7 @@
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
